--- a/时间管理大师/2023/3、目标九宫格.xlsx
+++ b/时间管理大师/2023/3、目标九宫格.xlsx
@@ -731,8 +731,8 @@
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
